--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd81</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.260995668163286</v>
+        <v>0.3375465</v>
       </c>
       <c r="H2">
-        <v>0.260995668163286</v>
+        <v>0.6750929999999999</v>
       </c>
       <c r="I2">
-        <v>0.008487073451462625</v>
+        <v>0.007757102082074438</v>
       </c>
       <c r="J2">
-        <v>0.008487073451462625</v>
+        <v>0.007032602246591258</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>177.056944497791</v>
+        <v>177.393692</v>
       </c>
       <c r="N2">
-        <v>177.056944497791</v>
+        <v>354.787384</v>
       </c>
       <c r="O2">
-        <v>0.3311344587549058</v>
+        <v>0.3222007289445883</v>
       </c>
       <c r="P2">
-        <v>0.3311344587549058</v>
+        <v>0.2602189068033273</v>
       </c>
       <c r="Q2">
-        <v>46.21109553215081</v>
+        <v>59.87861985667799</v>
       </c>
       <c r="R2">
-        <v>46.21109553215081</v>
+        <v>239.514479426712</v>
       </c>
       <c r="S2">
-        <v>0.002810362473763206</v>
+        <v>0.002499343945341967</v>
       </c>
       <c r="T2">
-        <v>0.002810362473763206</v>
+        <v>0.001830016068590601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.260995668163286</v>
+        <v>0.3375465</v>
       </c>
       <c r="H3">
-        <v>0.260995668163286</v>
+        <v>0.6750929999999999</v>
       </c>
       <c r="I3">
-        <v>0.008487073451462625</v>
+        <v>0.007757102082074438</v>
       </c>
       <c r="J3">
-        <v>0.008487073451462625</v>
+        <v>0.007032602246591258</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>91.09930860904019</v>
+        <v>96.861552</v>
       </c>
       <c r="N3">
-        <v>91.09930860904019</v>
+        <v>290.584656</v>
       </c>
       <c r="O3">
-        <v>0.1703752447257273</v>
+        <v>0.1759299460383526</v>
       </c>
       <c r="P3">
-        <v>0.1703752447257273</v>
+        <v>0.2131293978540706</v>
       </c>
       <c r="Q3">
-        <v>23.77652491962984</v>
+        <v>32.695277862168</v>
       </c>
       <c r="R3">
-        <v>23.77652491962984</v>
+        <v>196.171667173008</v>
       </c>
       <c r="S3">
-        <v>0.001445987216298168</v>
+        <v>0.001364706550713349</v>
       </c>
       <c r="T3">
-        <v>0.001445987216298168</v>
+        <v>0.001498854282163179</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.260995668163286</v>
+        <v>0.3375465</v>
       </c>
       <c r="H4">
-        <v>0.260995668163286</v>
+        <v>0.6750929999999999</v>
       </c>
       <c r="I4">
-        <v>0.008487073451462625</v>
+        <v>0.007757102082074438</v>
       </c>
       <c r="J4">
-        <v>0.008487073451462625</v>
+        <v>0.007032602246591258</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.71910737749201</v>
+        <v>8.703013333333335</v>
       </c>
       <c r="N4">
-        <v>6.71910737749201</v>
+        <v>26.10904</v>
       </c>
       <c r="O4">
-        <v>0.01256617181027695</v>
+        <v>0.01580731089363917</v>
       </c>
       <c r="P4">
-        <v>0.01256617181027695</v>
+        <v>0.01914968274769416</v>
       </c>
       <c r="Q4">
-        <v>1.753657919449392</v>
+        <v>2.93767169012</v>
       </c>
       <c r="R4">
-        <v>1.753657919449392</v>
+        <v>17.62603014072</v>
       </c>
       <c r="S4">
-        <v>0.0001066500231575195</v>
+        <v>0.0001226189242450464</v>
       </c>
       <c r="T4">
-        <v>0.0001066500231575195</v>
+        <v>0.0001346721019129438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.260995668163286</v>
+        <v>0.3375465</v>
       </c>
       <c r="H5">
-        <v>0.260995668163286</v>
+        <v>0.6750929999999999</v>
       </c>
       <c r="I5">
-        <v>0.008487073451462625</v>
+        <v>0.007757102082074438</v>
       </c>
       <c r="J5">
-        <v>0.008487073451462625</v>
+        <v>0.007032602246591258</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6741011334135</v>
+        <v>13.276584</v>
       </c>
       <c r="N5">
-        <v>12.6741011334135</v>
+        <v>39.829752</v>
       </c>
       <c r="O5">
-        <v>0.02370328727247509</v>
+        <v>0.02411430189239231</v>
       </c>
       <c r="P5">
-        <v>0.02370328727247509</v>
+        <v>0.02921314283172943</v>
       </c>
       <c r="Q5">
-        <v>3.307885493684317</v>
+        <v>4.481464461156</v>
       </c>
       <c r="R5">
-        <v>3.307885493684317</v>
+        <v>26.888786766936</v>
       </c>
       <c r="S5">
-        <v>0.0002011715401226153</v>
+        <v>0.0001870571014172479</v>
       </c>
       <c r="T5">
-        <v>0.0002011715401226153</v>
+        <v>0.0002054444139084117</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.260995668163286</v>
+        <v>0.3375465</v>
       </c>
       <c r="H6">
-        <v>0.260995668163286</v>
+        <v>0.6750929999999999</v>
       </c>
       <c r="I6">
-        <v>0.008487073451462625</v>
+        <v>0.007757102082074438</v>
       </c>
       <c r="J6">
-        <v>0.008487073451462625</v>
+        <v>0.007032602246591258</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>136.377684541137</v>
+        <v>143.440038</v>
       </c>
       <c r="N6">
-        <v>136.377684541137</v>
+        <v>430.320114</v>
       </c>
       <c r="O6">
-        <v>0.2550555183524028</v>
+        <v>0.2605305988188094</v>
       </c>
       <c r="P6">
-        <v>0.2550555183524028</v>
+        <v>0.3156184089132187</v>
       </c>
       <c r="Q6">
-        <v>35.59398489937589</v>
+        <v>48.41768278676699</v>
       </c>
       <c r="R6">
-        <v>35.59398489937589</v>
+        <v>290.506096720602</v>
       </c>
       <c r="S6">
-        <v>0.002164674918457716</v>
+        <v>0.002020962450541486</v>
       </c>
       <c r="T6">
-        <v>0.002164674918457716</v>
+        <v>0.002219618731588661</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.260995668163286</v>
+        <v>0.3375465</v>
       </c>
       <c r="H7">
-        <v>0.260995668163286</v>
+        <v>0.6750929999999999</v>
       </c>
       <c r="I7">
-        <v>0.008487073451462625</v>
+        <v>0.007757102082074438</v>
       </c>
       <c r="J7">
-        <v>0.008487073451462625</v>
+        <v>0.007032602246591258</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>110.770889084998</v>
+        <v>110.893993</v>
       </c>
       <c r="N7">
-        <v>110.770889084998</v>
+        <v>221.787986</v>
       </c>
       <c r="O7">
-        <v>0.2071653190842122</v>
+        <v>0.201417113412218</v>
       </c>
       <c r="P7">
-        <v>0.2071653190842122</v>
+        <v>0.1626704608499598</v>
       </c>
       <c r="Q7">
-        <v>28.9107222097803</v>
+        <v>37.43187920817449</v>
       </c>
       <c r="R7">
-        <v>28.9107222097803</v>
+        <v>149.727516832698</v>
       </c>
       <c r="S7">
-        <v>0.001758227279663401</v>
+        <v>0.001562413109815339</v>
       </c>
       <c r="T7">
-        <v>0.001758227279663401</v>
+        <v>0.001143996648427463</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.29270746069423</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H8">
-        <v>7.29270746069423</v>
+        <v>22.560501</v>
       </c>
       <c r="I8">
-        <v>0.2371447170541505</v>
+        <v>0.1728197539990712</v>
       </c>
       <c r="J8">
-        <v>0.2371447170541505</v>
+        <v>0.2350180345771981</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>177.056944497791</v>
+        <v>177.393692</v>
       </c>
       <c r="N8">
-        <v>177.056944497791</v>
+        <v>354.787384</v>
       </c>
       <c r="O8">
-        <v>0.3311344587549058</v>
+        <v>0.3222007289445883</v>
       </c>
       <c r="P8">
-        <v>0.3311344587549058</v>
+        <v>0.2602189068033273</v>
       </c>
       <c r="Q8">
-        <v>1291.224500106765</v>
+        <v>1334.030188586564</v>
       </c>
       <c r="R8">
-        <v>1291.224500106765</v>
+        <v>8004.181131519385</v>
       </c>
       <c r="S8">
-        <v>0.07852678752831141</v>
+        <v>0.05568265071452517</v>
       </c>
       <c r="T8">
-        <v>0.07852678752831141</v>
+        <v>0.06115613603674504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.29270746069423</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H9">
-        <v>7.29270746069423</v>
+        <v>22.560501</v>
       </c>
       <c r="I9">
-        <v>0.2371447170541505</v>
+        <v>0.1728197539990712</v>
       </c>
       <c r="J9">
-        <v>0.2371447170541505</v>
+        <v>0.2350180345771981</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.09930860904019</v>
+        <v>96.861552</v>
       </c>
       <c r="N9">
-        <v>91.09930860904019</v>
+        <v>290.584656</v>
       </c>
       <c r="O9">
-        <v>0.1703752447257273</v>
+        <v>0.1759299460383526</v>
       </c>
       <c r="P9">
-        <v>0.1703752447257273</v>
+        <v>0.2131293978540706</v>
       </c>
       <c r="Q9">
-        <v>664.3606075572335</v>
+        <v>728.4150469191841</v>
       </c>
       <c r="R9">
-        <v>664.3606075572335</v>
+        <v>6555.735422272656</v>
       </c>
       <c r="S9">
-        <v>0.04040358920351425</v>
+        <v>0.03040416999541797</v>
       </c>
       <c r="T9">
-        <v>0.04040358920351425</v>
+        <v>0.05008925219428536</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.29270746069423</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H10">
-        <v>7.29270746069423</v>
+        <v>22.560501</v>
       </c>
       <c r="I10">
-        <v>0.2371447170541505</v>
+        <v>0.1728197539990712</v>
       </c>
       <c r="J10">
-        <v>0.2371447170541505</v>
+        <v>0.2350180345771981</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.71910737749201</v>
+        <v>8.703013333333335</v>
       </c>
       <c r="N10">
-        <v>6.71910737749201</v>
+        <v>26.10904</v>
       </c>
       <c r="O10">
-        <v>0.01256617181027695</v>
+        <v>0.01580731089363917</v>
       </c>
       <c r="P10">
-        <v>0.01256617181027695</v>
+        <v>0.01914968274769416</v>
       </c>
       <c r="Q10">
-        <v>49.00048450104163</v>
+        <v>65.44811366989335</v>
       </c>
       <c r="R10">
-        <v>49.00048450104163</v>
+        <v>589.0330230290401</v>
       </c>
       <c r="S10">
-        <v>0.002980001258401969</v>
+        <v>0.00273181558002556</v>
       </c>
       <c r="T10">
-        <v>0.002980001258401969</v>
+        <v>0.00450052080213996</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.29270746069423</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H11">
-        <v>7.29270746069423</v>
+        <v>22.560501</v>
       </c>
       <c r="I11">
-        <v>0.2371447170541505</v>
+        <v>0.1728197539990712</v>
       </c>
       <c r="J11">
-        <v>0.2371447170541505</v>
+        <v>0.2350180345771981</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.6741011334135</v>
+        <v>13.276584</v>
       </c>
       <c r="N11">
-        <v>12.6741011334135</v>
+        <v>39.829752</v>
       </c>
       <c r="O11">
-        <v>0.02370328727247509</v>
+        <v>0.02411430189239231</v>
       </c>
       <c r="P11">
-        <v>0.02370328727247509</v>
+        <v>0.02921314283172943</v>
       </c>
       <c r="Q11">
-        <v>92.42851189323783</v>
+        <v>99.84212886952801</v>
       </c>
       <c r="R11">
-        <v>92.42851189323783</v>
+        <v>898.5791598257521</v>
       </c>
       <c r="S11">
-        <v>0.005621109353484352</v>
+        <v>0.004167427720902576</v>
       </c>
       <c r="T11">
-        <v>0.005621109353484352</v>
+        <v>0.006865615412136013</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.29270746069423</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H12">
-        <v>7.29270746069423</v>
+        <v>22.560501</v>
       </c>
       <c r="I12">
-        <v>0.2371447170541505</v>
+        <v>0.1728197539990712</v>
       </c>
       <c r="J12">
-        <v>0.2371447170541505</v>
+        <v>0.2350180345771981</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>136.377684541137</v>
+        <v>143.440038</v>
       </c>
       <c r="N12">
-        <v>136.377684541137</v>
+        <v>430.320114</v>
       </c>
       <c r="O12">
-        <v>0.2550555183524028</v>
+        <v>0.2605305988188094</v>
       </c>
       <c r="P12">
-        <v>0.2550555183524028</v>
+        <v>0.3156184089132187</v>
       </c>
       <c r="Q12">
-        <v>994.562557525354</v>
+        <v>1078.693040246346</v>
       </c>
       <c r="R12">
-        <v>994.562557525354</v>
+        <v>9708.237362217114</v>
       </c>
       <c r="S12">
-        <v>0.06048506873278025</v>
+        <v>0.04502483399709736</v>
       </c>
       <c r="T12">
-        <v>0.06048506873278025</v>
+        <v>0.07417601813916708</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.29270746069423</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H13">
-        <v>7.29270746069423</v>
+        <v>22.560501</v>
       </c>
       <c r="I13">
-        <v>0.2371447170541505</v>
+        <v>0.1728197539990712</v>
       </c>
       <c r="J13">
-        <v>0.2371447170541505</v>
+        <v>0.2350180345771981</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>110.770889084998</v>
+        <v>110.893993</v>
       </c>
       <c r="N13">
-        <v>110.770889084998</v>
+        <v>221.787986</v>
       </c>
       <c r="O13">
-        <v>0.2071653190842122</v>
+        <v>0.201417113412218</v>
       </c>
       <c r="P13">
-        <v>0.2071653190842122</v>
+        <v>0.1626704608499598</v>
       </c>
       <c r="Q13">
-        <v>807.8196892578981</v>
+        <v>833.941346656831</v>
       </c>
       <c r="R13">
-        <v>807.8196892578981</v>
+        <v>5003.648079940986</v>
       </c>
       <c r="S13">
-        <v>0.04912816097765831</v>
+        <v>0.03480885599110255</v>
       </c>
       <c r="T13">
-        <v>0.04912816097765831</v>
+        <v>0.03823049199272459</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.13110730153305</v>
+        <v>0.09166733333333332</v>
       </c>
       <c r="H14">
-        <v>1.13110730153305</v>
+        <v>0.275002</v>
       </c>
       <c r="I14">
-        <v>0.03678141793369072</v>
+        <v>0.002106592313231544</v>
       </c>
       <c r="J14">
-        <v>0.03678141793369072</v>
+        <v>0.002864760385631445</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>177.056944497791</v>
+        <v>177.393692</v>
       </c>
       <c r="N14">
-        <v>177.056944497791</v>
+        <v>354.787384</v>
       </c>
       <c r="O14">
-        <v>0.3311344587549058</v>
+        <v>0.3222007289445883</v>
       </c>
       <c r="P14">
-        <v>0.3311344587549058</v>
+        <v>0.2602189068033273</v>
       </c>
       <c r="Q14">
-        <v>200.2704027085834</v>
+        <v>16.26120669579466</v>
       </c>
       <c r="R14">
-        <v>200.2704027085834</v>
+        <v>97.56724017476799</v>
       </c>
       <c r="S14">
-        <v>0.01217959491971066</v>
+        <v>0.00067874557891227</v>
       </c>
       <c r="T14">
-        <v>0.01217959491971066</v>
+        <v>0.0007454648158024929</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.13110730153305</v>
+        <v>0.09166733333333332</v>
       </c>
       <c r="H15">
-        <v>1.13110730153305</v>
+        <v>0.275002</v>
       </c>
       <c r="I15">
-        <v>0.03678141793369072</v>
+        <v>0.002106592313231544</v>
       </c>
       <c r="J15">
-        <v>0.03678141793369072</v>
+        <v>0.002864760385631445</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>91.09930860904019</v>
+        <v>96.861552</v>
       </c>
       <c r="N15">
-        <v>91.09930860904019</v>
+        <v>290.584656</v>
       </c>
       <c r="O15">
-        <v>0.1703752447257273</v>
+        <v>0.1759299460383526</v>
       </c>
       <c r="P15">
-        <v>0.1703752447257273</v>
+        <v>0.2131293978540706</v>
       </c>
       <c r="Q15">
-        <v>103.043093132298</v>
+        <v>8.879040174367999</v>
       </c>
       <c r="R15">
-        <v>103.043093132298</v>
+        <v>79.91136156931199</v>
       </c>
       <c r="S15">
-        <v>0.00626664308181181</v>
+        <v>0.000370612671991634</v>
       </c>
       <c r="T15">
-        <v>0.00626664308181181</v>
+        <v>0.0006105646559858249</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.13110730153305</v>
+        <v>0.09166733333333332</v>
       </c>
       <c r="H16">
-        <v>1.13110730153305</v>
+        <v>0.275002</v>
       </c>
       <c r="I16">
-        <v>0.03678141793369072</v>
+        <v>0.002106592313231544</v>
       </c>
       <c r="J16">
-        <v>0.03678141793369072</v>
+        <v>0.002864760385631445</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.71910737749201</v>
+        <v>8.703013333333335</v>
       </c>
       <c r="N16">
-        <v>6.71910737749201</v>
+        <v>26.10904</v>
       </c>
       <c r="O16">
-        <v>0.01256617181027695</v>
+        <v>0.01580731089363917</v>
       </c>
       <c r="P16">
-        <v>0.01256617181027695</v>
+        <v>0.01914968274769416</v>
       </c>
       <c r="Q16">
-        <v>7.600031414465795</v>
+        <v>0.7977820242311111</v>
       </c>
       <c r="R16">
-        <v>7.600031414465795</v>
+        <v>7.18003821808</v>
       </c>
       <c r="S16">
-        <v>0.0004622016171803593</v>
+        <v>3.329955962140153E-05</v>
       </c>
       <c r="T16">
-        <v>0.0004622016171803593</v>
+        <v>5.485925253300417E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.13110730153305</v>
+        <v>0.09166733333333332</v>
       </c>
       <c r="H17">
-        <v>1.13110730153305</v>
+        <v>0.275002</v>
       </c>
       <c r="I17">
-        <v>0.03678141793369072</v>
+        <v>0.002106592313231544</v>
       </c>
       <c r="J17">
-        <v>0.03678141793369072</v>
+        <v>0.002864760385631445</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.6741011334135</v>
+        <v>13.276584</v>
       </c>
       <c r="N17">
-        <v>12.6741011334135</v>
+        <v>39.829752</v>
       </c>
       <c r="O17">
-        <v>0.02370328727247509</v>
+        <v>0.02411430189239231</v>
       </c>
       <c r="P17">
-        <v>0.02370328727247509</v>
+        <v>0.02921314283172943</v>
       </c>
       <c r="Q17">
-        <v>14.33576833237231</v>
+        <v>1.217029051056</v>
       </c>
       <c r="R17">
-        <v>14.33576833237231</v>
+        <v>10.953261459504</v>
       </c>
       <c r="S17">
-        <v>0.0008718405155712382</v>
+        <v>5.079900300545852E-05</v>
       </c>
       <c r="T17">
-        <v>0.0008718405155712382</v>
+        <v>8.36886543241317E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.13110730153305</v>
+        <v>0.09166733333333332</v>
       </c>
       <c r="H18">
-        <v>1.13110730153305</v>
+        <v>0.275002</v>
       </c>
       <c r="I18">
-        <v>0.03678141793369072</v>
+        <v>0.002106592313231544</v>
       </c>
       <c r="J18">
-        <v>0.03678141793369072</v>
+        <v>0.002864760385631445</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>136.377684541137</v>
+        <v>143.440038</v>
       </c>
       <c r="N18">
-        <v>136.377684541137</v>
+        <v>430.320114</v>
       </c>
       <c r="O18">
-        <v>0.2550555183524028</v>
+        <v>0.2605305988188094</v>
       </c>
       <c r="P18">
-        <v>0.2550555183524028</v>
+        <v>0.3156184089132187</v>
       </c>
       <c r="Q18">
-        <v>154.257794750651</v>
+        <v>13.148765776692</v>
       </c>
       <c r="R18">
-        <v>154.257794750651</v>
+        <v>118.338891990228</v>
       </c>
       <c r="S18">
-        <v>0.009381303616813849</v>
+        <v>0.0005488317568333152</v>
       </c>
       <c r="T18">
-        <v>0.009381303616813849</v>
+        <v>0.0009041711148306157</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.13110730153305</v>
+        <v>0.09166733333333332</v>
       </c>
       <c r="H19">
-        <v>1.13110730153305</v>
+        <v>0.275002</v>
       </c>
       <c r="I19">
-        <v>0.03678141793369072</v>
+        <v>0.002106592313231544</v>
       </c>
       <c r="J19">
-        <v>0.03678141793369072</v>
+        <v>0.002864760385631445</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>110.770889084998</v>
+        <v>110.893993</v>
       </c>
       <c r="N19">
-        <v>110.770889084998</v>
+        <v>221.787986</v>
       </c>
       <c r="O19">
-        <v>0.2071653190842122</v>
+        <v>0.201417113412218</v>
       </c>
       <c r="P19">
-        <v>0.2071653190842122</v>
+        <v>0.1626704608499598</v>
       </c>
       <c r="Q19">
-        <v>125.2937614413489</v>
+        <v>10.16535662099533</v>
       </c>
       <c r="R19">
-        <v>125.2937614413489</v>
+        <v>60.99213972597199</v>
       </c>
       <c r="S19">
-        <v>0.007619834182602802</v>
+        <v>0.0004243037428674647</v>
       </c>
       <c r="T19">
-        <v>0.007619834182602802</v>
+        <v>0.0004660118921553757</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.0673292389447</v>
+        <v>1.353909666666667</v>
       </c>
       <c r="H20">
-        <v>22.0673292389447</v>
+        <v>4.061729</v>
       </c>
       <c r="I20">
-        <v>0.7175867915606962</v>
+        <v>0.03111398131588006</v>
       </c>
       <c r="J20">
-        <v>0.7175867915606962</v>
+        <v>0.04231198440873312</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>177.056944497791</v>
+        <v>177.393692</v>
       </c>
       <c r="N20">
-        <v>177.056944497791</v>
+        <v>354.787384</v>
       </c>
       <c r="O20">
-        <v>0.3311344587549058</v>
+        <v>0.3222007289445883</v>
       </c>
       <c r="P20">
-        <v>0.3311344587549058</v>
+        <v>0.2602189068033273</v>
       </c>
       <c r="Q20">
-        <v>3907.173888274313</v>
+        <v>240.1750344044893</v>
       </c>
       <c r="R20">
-        <v>3907.173888274313</v>
+        <v>1441.050206426936</v>
       </c>
       <c r="S20">
-        <v>0.2376177138331205</v>
+        <v>0.01002494746034486</v>
       </c>
       <c r="T20">
-        <v>0.2376177138331205</v>
+        <v>0.01101037832751996</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22.0673292389447</v>
+        <v>1.353909666666667</v>
       </c>
       <c r="H21">
-        <v>22.0673292389447</v>
+        <v>4.061729</v>
       </c>
       <c r="I21">
-        <v>0.7175867915606962</v>
+        <v>0.03111398131588006</v>
       </c>
       <c r="J21">
-        <v>0.7175867915606962</v>
+        <v>0.04231198440873312</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>91.09930860904019</v>
+        <v>96.861552</v>
       </c>
       <c r="N21">
-        <v>91.09930860904019</v>
+        <v>290.584656</v>
       </c>
       <c r="O21">
-        <v>0.1703752447257273</v>
+        <v>0.1759299460383526</v>
       </c>
       <c r="P21">
-        <v>0.1703752447257273</v>
+        <v>0.2131293978540706</v>
       </c>
       <c r="Q21">
-        <v>2010.318436515919</v>
+        <v>131.141791581136</v>
       </c>
       <c r="R21">
-        <v>2010.318436515919</v>
+        <v>1180.276124230224</v>
       </c>
       <c r="S21">
-        <v>0.1222590252241031</v>
+        <v>0.00547388105394109</v>
       </c>
       <c r="T21">
-        <v>0.1222590252241031</v>
+        <v>0.009017927759044113</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.0673292389447</v>
+        <v>1.353909666666667</v>
       </c>
       <c r="H22">
-        <v>22.0673292389447</v>
+        <v>4.061729</v>
       </c>
       <c r="I22">
-        <v>0.7175867915606962</v>
+        <v>0.03111398131588006</v>
       </c>
       <c r="J22">
-        <v>0.7175867915606962</v>
+        <v>0.04231198440873312</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.71910737749201</v>
+        <v>8.703013333333335</v>
       </c>
       <c r="N22">
-        <v>6.71910737749201</v>
+        <v>26.10904</v>
       </c>
       <c r="O22">
-        <v>0.01256617181027695</v>
+        <v>0.01580731089363917</v>
       </c>
       <c r="P22">
-        <v>0.01256617181027695</v>
+        <v>0.01914968274769416</v>
       </c>
       <c r="Q22">
-        <v>148.2727546909385</v>
+        <v>11.78309388112889</v>
       </c>
       <c r="R22">
-        <v>148.2727546909385</v>
+        <v>106.04784493016</v>
       </c>
       <c r="S22">
-        <v>0.009017318911537099</v>
+        <v>0.0004918283757989964</v>
       </c>
       <c r="T22">
-        <v>0.009017318911537099</v>
+        <v>0.0008102610778526211</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.0673292389447</v>
+        <v>1.353909666666667</v>
       </c>
       <c r="H23">
-        <v>22.0673292389447</v>
+        <v>4.061729</v>
       </c>
       <c r="I23">
-        <v>0.7175867915606962</v>
+        <v>0.03111398131588006</v>
       </c>
       <c r="J23">
-        <v>0.7175867915606962</v>
+        <v>0.04231198440873312</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.6741011334135</v>
+        <v>13.276584</v>
       </c>
       <c r="N23">
-        <v>12.6741011334135</v>
+        <v>39.829752</v>
       </c>
       <c r="O23">
-        <v>0.02370328727247509</v>
+        <v>0.02411430189239231</v>
       </c>
       <c r="P23">
-        <v>0.02370328727247509</v>
+        <v>0.02921314283172943</v>
       </c>
       <c r="Q23">
-        <v>279.6835625187179</v>
+        <v>17.975295417912</v>
       </c>
       <c r="R23">
-        <v>279.6835625187179</v>
+        <v>161.777658761208</v>
       </c>
       <c r="S23">
-        <v>0.01700916586329688</v>
+        <v>0.0007502919385253854</v>
       </c>
       <c r="T23">
-        <v>0.01700916586329688</v>
+        <v>0.00123606604402623</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.0673292389447</v>
+        <v>1.353909666666667</v>
       </c>
       <c r="H24">
-        <v>22.0673292389447</v>
+        <v>4.061729</v>
       </c>
       <c r="I24">
-        <v>0.7175867915606962</v>
+        <v>0.03111398131588006</v>
       </c>
       <c r="J24">
-        <v>0.7175867915606962</v>
+        <v>0.04231198440873312</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>136.377684541137</v>
+        <v>143.440038</v>
       </c>
       <c r="N24">
-        <v>136.377684541137</v>
+        <v>430.320114</v>
       </c>
       <c r="O24">
-        <v>0.2550555183524028</v>
+        <v>0.2605305988188094</v>
       </c>
       <c r="P24">
-        <v>0.2550555183524028</v>
+        <v>0.3156184089132187</v>
       </c>
       <c r="Q24">
-        <v>3009.491265614209</v>
+        <v>194.204854035234</v>
       </c>
       <c r="R24">
-        <v>3009.491265614209</v>
+        <v>1747.843686317106</v>
       </c>
       <c r="S24">
-        <v>0.1830244710843509</v>
+        <v>0.008106144183863479</v>
       </c>
       <c r="T24">
-        <v>0.1830244710843509</v>
+        <v>0.01335444119704527</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.353909666666667</v>
+      </c>
+      <c r="H25">
+        <v>4.061729</v>
+      </c>
+      <c r="I25">
+        <v>0.03111398131588006</v>
+      </c>
+      <c r="J25">
+        <v>0.04231198440873312</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>110.893993</v>
+      </c>
+      <c r="N25">
+        <v>221.787986</v>
+      </c>
+      <c r="O25">
+        <v>0.201417113412218</v>
+      </c>
+      <c r="P25">
+        <v>0.1626704608499598</v>
+      </c>
+      <c r="Q25">
+        <v>150.1404490979656</v>
+      </c>
+      <c r="R25">
+        <v>900.8426945877939</v>
+      </c>
+      <c r="S25">
+        <v>0.006266888303406246</v>
+      </c>
+      <c r="T25">
+        <v>0.00688291000324493</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>34.21122</v>
+      </c>
+      <c r="H26">
+        <v>68.42243999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.7862025702897427</v>
+      </c>
+      <c r="J26">
+        <v>0.712772618381846</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>177.393692</v>
+      </c>
+      <c r="N26">
+        <v>354.787384</v>
+      </c>
+      <c r="O26">
+        <v>0.3222007289445883</v>
+      </c>
+      <c r="P26">
+        <v>0.2602189068033273</v>
+      </c>
+      <c r="Q26">
+        <v>6068.854623624239</v>
+      </c>
+      <c r="R26">
+        <v>24275.41849449696</v>
+      </c>
+      <c r="S26">
+        <v>0.253315041245464</v>
+      </c>
+      <c r="T26">
+        <v>0.1854769115546691</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>34.21122</v>
+      </c>
+      <c r="H27">
+        <v>68.42243999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.7862025702897427</v>
+      </c>
+      <c r="J27">
+        <v>0.712772618381846</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>96.861552</v>
+      </c>
+      <c r="N27">
+        <v>290.584656</v>
+      </c>
+      <c r="O27">
+        <v>0.1759299460383526</v>
+      </c>
+      <c r="P27">
+        <v>0.2131293978540706</v>
+      </c>
+      <c r="Q27">
+        <v>3313.75186501344</v>
+      </c>
+      <c r="R27">
+        <v>19882.51119008064</v>
+      </c>
+      <c r="S27">
+        <v>0.1383165757662886</v>
+      </c>
+      <c r="T27">
+        <v>0.1519127989625921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>34.21122</v>
+      </c>
+      <c r="H28">
+        <v>68.42243999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.7862025702897427</v>
+      </c>
+      <c r="J28">
+        <v>0.712772618381846</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>8.703013333333335</v>
+      </c>
+      <c r="N28">
+        <v>26.10904</v>
+      </c>
+      <c r="O28">
+        <v>0.01580731089363917</v>
+      </c>
+      <c r="P28">
+        <v>0.01914968274769416</v>
+      </c>
+      <c r="Q28">
+        <v>297.7407038096</v>
+      </c>
+      <c r="R28">
+        <v>1786.4442228576</v>
+      </c>
+      <c r="S28">
+        <v>0.01242774845394817</v>
+      </c>
+      <c r="T28">
+        <v>0.01364936951325563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>34.21122</v>
+      </c>
+      <c r="H29">
+        <v>68.42243999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.7862025702897427</v>
+      </c>
+      <c r="J29">
+        <v>0.712772618381846</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>13.276584</v>
+      </c>
+      <c r="N29">
+        <v>39.829752</v>
+      </c>
+      <c r="O29">
+        <v>0.02411430189239231</v>
+      </c>
+      <c r="P29">
+        <v>0.02921314283172943</v>
+      </c>
+      <c r="Q29">
+        <v>454.2081360724799</v>
+      </c>
+      <c r="R29">
+        <v>2725.24881643488</v>
+      </c>
+      <c r="S29">
+        <v>0.01895872612854164</v>
+      </c>
+      <c r="T29">
+        <v>0.02082232830733464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>22.0673292389447</v>
-      </c>
-      <c r="H25">
-        <v>22.0673292389447</v>
-      </c>
-      <c r="I25">
-        <v>0.7175867915606962</v>
-      </c>
-      <c r="J25">
-        <v>0.7175867915606962</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>110.770889084998</v>
-      </c>
-      <c r="N25">
-        <v>110.770889084998</v>
-      </c>
-      <c r="O25">
-        <v>0.2071653190842122</v>
-      </c>
-      <c r="P25">
-        <v>0.2071653190842122</v>
-      </c>
-      <c r="Q25">
-        <v>2444.417679529277</v>
-      </c>
-      <c r="R25">
-        <v>2444.417679529277</v>
-      </c>
-      <c r="S25">
-        <v>0.1486590966442877</v>
-      </c>
-      <c r="T25">
-        <v>0.1486590966442877</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>34.21122</v>
+      </c>
+      <c r="H30">
+        <v>68.42243999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.7862025702897427</v>
+      </c>
+      <c r="J30">
+        <v>0.712772618381846</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>143.440038</v>
+      </c>
+      <c r="N30">
+        <v>430.320114</v>
+      </c>
+      <c r="O30">
+        <v>0.2605305988188094</v>
+      </c>
+      <c r="P30">
+        <v>0.3156184089132187</v>
+      </c>
+      <c r="Q30">
+        <v>4907.258696826359</v>
+      </c>
+      <c r="R30">
+        <v>29443.55218095816</v>
+      </c>
+      <c r="S30">
+        <v>0.2048298264304738</v>
+      </c>
+      <c r="T30">
+        <v>0.2249641597305871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>34.21122</v>
+      </c>
+      <c r="H31">
+        <v>68.42243999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.7862025702897427</v>
+      </c>
+      <c r="J31">
+        <v>0.712772618381846</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>110.893993</v>
+      </c>
+      <c r="N31">
+        <v>221.787986</v>
+      </c>
+      <c r="O31">
+        <v>0.201417113412218</v>
+      </c>
+      <c r="P31">
+        <v>0.1626704608499598</v>
+      </c>
+      <c r="Q31">
+        <v>3793.81879120146</v>
+      </c>
+      <c r="R31">
+        <v>15175.27516480584</v>
+      </c>
+      <c r="S31">
+        <v>0.1583546522650264</v>
+      </c>
+      <c r="T31">
+        <v>0.1159470503134074</v>
       </c>
     </row>
   </sheetData>
